--- a/02.詳細設計/テーブル定義書.xlsx
+++ b/02.詳細設計/テーブル定義書.xlsx
@@ -1,27 +1,557 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tadashi/Dropbox/katachih2/利用者さん課題/_サンプルファイル/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tadashi/Katachi Dropbox/miraino katachi/katachi【講師】/利用者さん課題/_実践課題仕様書セット/document-sample/02.詳細設計/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A3401AC-65F9-9E43-B502-9C136D03DEB2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DBF28F-C222-6F41-B1CC-179B4248AFF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
-    <sheet name="テーブル" sheetId="2" r:id="rId2"/>
+    <sheet name="サンプル" sheetId="5" r:id="rId2"/>
+    <sheet name="テーブル" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">サンプル!$A$1:$G$28</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>No0969</author>
+  </authors>
+  <commentList>
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{C21EB73E-3D21-8443-8DEC-516F370C9752}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Yu Gothic UI"/>
+          </rPr>
+          <t>システムの名前を入力します。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{39A4CC4E-7B38-1B49-AAB4-DE1B36E34936}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Yu Gothic UI"/>
+          </rPr>
+          <t>あなたのお名前を入力します。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{5886709E-0F4A-B843-81C7-644DFAF278CC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Yu Gothic UI"/>
+          </rPr>
+          <t>作成した日付を入力します。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{BAD5550F-3046-7B42-B8F4-84C08A13D7AB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Yu Gothic UI"/>
+          </rPr>
+          <t>データベース名を入力します。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{F769BAB7-BE80-CF42-8E08-3CABD5D7357C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Yu Gothic UI"/>
+          </rPr>
+          <t>更新した日付を入力します。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{57059075-E31A-CD43-8D89-ED5673CC5BE8}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Yu Gothic UI"/>
+          </rPr>
+          <t>実際のテーブル名ではなく、日本語での呼び名を入力します。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{32C780C8-E2D8-0B40-A9AC-030598C948FF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Yu Gothic UI"/>
+          </rPr>
+          <t>システムで使用するデータベースの種類、バージョンを入力します。</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Yu Gothic UI"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{EAC8482A-1278-224F-98C3-A418FAAB942A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Yu Gothic UI"/>
+          </rPr>
+          <t>実際のデータベースの中での名前を入力します。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F6" authorId="0" shapeId="0" xr:uid="{E2157CCC-94FD-014C-8D53-9AD000731BF5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Yu Gothic UI"/>
+          </rPr>
+          <t>テーブルで使用するデフォルトの文字コードと照合順序です。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{2510468E-0564-8345-B6D7-16B9A67D3554}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Yu Gothic UI"/>
+          </rPr>
+          <t>実際のカラム系ではなく、日本語での呼び名を入力します。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{A5308798-43E2-BB41-B5BC-CA6C869BBA9B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Yu Gothic UI"/>
+          </rPr>
+          <t>テーブル内での実際のカラム名を入力します。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D13" authorId="0" shapeId="0" xr:uid="{813E2BCA-DD23-0C45-B6AF-103CA9678925}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Yu Gothic UI"/>
+          </rPr>
+          <t>カラムのデータ型を入力します。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E13" authorId="0" shapeId="0" xr:uid="{86E736DF-237E-3346-AFA5-7386A841BB2D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Yu Gothic UI"/>
+          </rPr>
+          <t>NULL</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Yu Gothic UI"/>
+          </rPr>
+          <t>不許可のとき</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Yu Gothic UI"/>
+          </rPr>
+          <t>→</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Yu Gothic UI"/>
+          </rPr>
+          <t xml:space="preserve">Yes
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Yu Gothic UI"/>
+          </rPr>
+          <t>NULL</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Yu Gothic UI"/>
+          </rPr>
+          <t>許可のとき</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Yu Gothic UI"/>
+          </rPr>
+          <t>→</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Yu Gothic UI"/>
+          </rPr>
+          <t>何も記載しない</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F13" authorId="0" shapeId="0" xr:uid="{5A00AC48-E194-004C-937D-9E929C925E1B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Yu Gothic UI"/>
+          </rPr>
+          <t>カラムのデフォルト値があるときは、その値を入力します。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G13" authorId="0" shapeId="0" xr:uid="{4AA2724F-2A4E-E044-B050-6F9E05D9D917}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Yu Gothic UI"/>
+          </rPr>
+          <t>備考欄です。</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Yu Gothic UI"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Yu Gothic UI"/>
+          </rPr>
+          <t>値が意味すること</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Yu Gothic UI"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Yu Gothic UI"/>
+          </rPr>
+          <t>オートインクリメント</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Yu Gothic UI"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Yu Gothic UI"/>
+          </rPr>
+          <t>その他、必要な事項を入力します。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B26" authorId="0" shapeId="0" xr:uid="{FA0E4F6C-90B7-444A-8CF9-6848B1FE4153}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Yu Gothic UI"/>
+          </rPr>
+          <t>カラムにインデックスを</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Yu Gothic UI"/>
+          </rPr>
+          <t>t</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Yu Gothic UI"/>
+          </rPr>
+          <t>ける時は、インデックス名を入力します。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C26" authorId="0" shapeId="0" xr:uid="{67103559-7C68-8E48-8DB2-307E1D1DF0E4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Yu Gothic UI"/>
+          </rPr>
+          <t>インデックスをつけるカラム名を入力します。</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Yu Gothic UI"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Yu Gothic UI"/>
+          </rPr>
+          <t>複合インデックスの場合は、すべてのカラム名を入力します。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E26" authorId="0" shapeId="0" xr:uid="{BBA8EE6C-2CED-CA46-9965-186EAD50033A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Yu Gothic UI"/>
+          </rPr>
+          <t>主キーのとき</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Yu Gothic UI"/>
+          </rPr>
+          <t>→</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Yu Gothic UI"/>
+          </rPr>
+          <t xml:space="preserve">Yes
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Yu Gothic UI"/>
+          </rPr>
+          <t>主キーでないとき</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Yu Gothic UI"/>
+          </rPr>
+          <t>→</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Yu Gothic UI"/>
+          </rPr>
+          <t>No</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F26" authorId="0" shapeId="0" xr:uid="{E04DA848-C54E-DE45-936E-283519D3D998}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Yu Gothic UI"/>
+          </rPr>
+          <t>値をユニーク（一意）にするとき</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Yu Gothic UI"/>
+          </rPr>
+          <t>→</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Yu Gothic UI"/>
+          </rPr>
+          <t xml:space="preserve">Yes
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Yu Gothic UI"/>
+          </rPr>
+          <t>しないとき</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Yu Gothic UI"/>
+          </rPr>
+          <t>→</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Yu Gothic UI"/>
+          </rPr>
+          <t>No</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G26" authorId="0" shapeId="0" xr:uid="{176F8E63-3BC0-C342-AA0B-11C80D3853E6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Yu Gothic UI"/>
+          </rPr>
+          <t>その他、説明が必要であれば、入力します。</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="71">
   <si>
     <t>テーブル一覧</t>
   </si>
@@ -101,137 +631,156 @@
     <t>PRIMARY</t>
   </si>
   <si>
-    <t>制約情報</t>
-  </si>
-  <si>
-    <t>制約名</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>制約定義</t>
-  </si>
-  <si>
-    <t>PRIMARY KEY</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
-    <t>外部キー情報</t>
+    <t>共有型TODO管理アプリケーション</t>
   </si>
   <si>
-    <t>外部キー名</t>
+    <t>本町2校　坂上</t>
   </si>
   <si>
-    <t>参照先テーブル名</t>
+    <t>2019/05/13</t>
   </si>
   <si>
-    <t>参照先カラムリスト</t>
+    <t>データベース名</t>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>外部キー情報(PK側)</t>
+    <t>todo</t>
   </si>
   <si>
-    <t>参照元テーブル名</t>
+    <t>作業項目</t>
   </si>
   <si>
-    <t>参照元カラムリスト</t>
+    <t>todo_items</t>
   </si>
   <si>
-    <t>トリガー情報</t>
+    <t>照合順序</t>
   </si>
   <si>
-    <t>トリガー名</t>
+    <t>作業項目を保存するテーブル
+参照順序は「utf8mb4_general_ci」にする。</t>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>イベント</t>
+    <t>ID</t>
   </si>
   <si>
-    <t>タイミング</t>
+    <t>Yes</t>
   </si>
   <si>
-    <t>条件</t>
+    <t>ユーザーID</t>
   </si>
   <si>
-    <t>RDBMS固有の情報</t>
+    <t>user_id</t>
   </si>
   <si>
-    <t>プロパティ名</t>
+    <t>int</t>
   </si>
   <si>
-    <t>プロパティ値</t>
+    <t>項目名</t>
   </si>
   <si>
-    <t>TABLE_CATALOG</t>
+    <t>item_name</t>
   </si>
   <si>
-    <t>TABLE_SCHEMA</t>
+    <t>varchar(100)</t>
   </si>
   <si>
-    <t>TABLE_NAME</t>
+    <t>登録日</t>
   </si>
   <si>
-    <t>TABLE_TYPE</t>
+    <t>registration_date</t>
   </si>
   <si>
-    <t>ENGINE</t>
+    <t>date</t>
   </si>
   <si>
-    <t>VERSION</t>
+    <t>期限日</t>
   </si>
   <si>
-    <t>ROW_FORMAT</t>
+    <t>expire_date</t>
   </si>
   <si>
-    <t>TABLE_ROWS</t>
+    <t>完了日</t>
   </si>
   <si>
-    <t>AVG_ROW_LENGTH</t>
+    <t>finished_date</t>
   </si>
   <si>
-    <t>DATA_LENGTH</t>
+    <t>NULLのとき、未完了とする。</t>
   </si>
   <si>
-    <t>MAX_DATA_LENGTH</t>
+    <t>削除フラグ</t>
   </si>
   <si>
-    <t>INDEX_LENGTH</t>
+    <t>is_deleted</t>
   </si>
   <si>
-    <t>DATA_FREE</t>
+    <t>tinyint</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>0:未削除
+1:削除済み</t>
+  </si>
+  <si>
+    <t>登録日時</t>
+  </si>
+  <si>
+    <t>create_date_time</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>CURRENT_TIMESTAMP</t>
+  </si>
+  <si>
+    <t>レコードの登録日時</t>
+  </si>
+  <si>
+    <t>更新日時</t>
+  </si>
+  <si>
+    <t>update_date_time</t>
+  </si>
+  <si>
+    <t>IX_todo_items_user_id</t>
+  </si>
+  <si>
+    <t>utf8mb4_unicode_ci</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>MySQL 5.7</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>レコードの更新日時 on update CURRENT_TIMESTAMP</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>AUTO_INCREMENT</t>
-  </si>
-  <si>
-    <t>CREATE_TIME</t>
-  </si>
-  <si>
-    <t>UPDATE_TIME</t>
-  </si>
-  <si>
-    <t>CHECK_TIME</t>
-  </si>
-  <si>
-    <t>TABLE_COLLATION</t>
-  </si>
-  <si>
-    <t>CHECKSUM</t>
-  </si>
-  <si>
-    <t>CREATE_OPTIONS</t>
-  </si>
-  <si>
-    <t>TABLE_COMMENT</t>
+    <phoneticPr fontId="6"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -280,6 +829,43 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="MS PGothic"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="MS PGothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Yu Gothic UI"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Yu Gothic UI"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -295,7 +881,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="56">
+  <borders count="60">
     <border>
       <left/>
       <right/>
@@ -681,136 +1267,6 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -831,10 +1287,141 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
@@ -843,11 +1430,13 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
+      <top style="hair">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
@@ -862,7 +1451,7 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
+      <top style="hair">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
@@ -875,10 +1464,10 @@
         <color rgb="FF000000"/>
       </left>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="dotted">
+      <bottom style="hair">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -888,34 +1477,10 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="dotted">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="dotted">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="dotted">
+      <bottom style="hair">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -925,10 +1490,10 @@
         <color rgb="FF000000"/>
       </left>
       <right/>
-      <top style="dotted">
+      <top style="hair">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="dotted">
+      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -936,6 +1501,30 @@
     <border>
       <left/>
       <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="hair">
         <color rgb="FF000000"/>
       </right>
       <top style="dotted">
@@ -947,8 +1536,12 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
       <top style="dotted">
         <color rgb="FF000000"/>
       </top>
@@ -958,7 +1551,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -971,21 +1566,55 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top style="dotted">
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
+      <bottom style="dotted">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="hair">
         <color rgb="FF000000"/>
       </right>
       <top style="dotted">
@@ -997,8 +1626,12 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
       <top style="dotted">
         <color rgb="FF000000"/>
       </top>
@@ -1008,7 +1641,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -1020,11 +1655,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1064,58 +1750,19 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1157,34 +1804,172 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="42" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="49" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="50" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="56" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1196,66 +1981,59 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="58" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="59" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="41" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{5141E5EF-EC11-D94B-B3CC-1C5EAE7DD2C7}"/>
+    <cellStyle name="標準 3" xfId="2" xr:uid="{69DA918C-ED4E-254A-8356-A456FDE5F1B0}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1268,6 +2046,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -29607,13 +30389,538 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50DC253-F783-544A-951E-EDDCB2E9A558}">
+  <dimension ref="A1:IV31"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="136" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="3.1640625" style="59" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" style="59" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" style="59" customWidth="1"/>
+    <col min="4" max="4" width="36.1640625" style="59" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" style="59" customWidth="1"/>
+    <col min="6" max="6" width="20" style="59" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.1640625" style="59" customWidth="1"/>
+    <col min="8" max="256" width="12.6640625" style="59" customWidth="1"/>
+    <col min="257" max="16384" width="12.6640625" style="73"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="59" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+    </row>
+    <row r="2" spans="1:7" s="59" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="60"/>
+      <c r="E2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="61"/>
+    </row>
+    <row r="3" spans="1:7" s="59" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A3" s="2"/>
+      <c r="B3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="31"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="63"/>
+    </row>
+    <row r="4" spans="1:7" s="59" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A4" s="2"/>
+      <c r="B4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="62"/>
+      <c r="E4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="63"/>
+    </row>
+    <row r="5" spans="1:7" s="59" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="62"/>
+      <c r="E5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="63"/>
+    </row>
+    <row r="6" spans="1:7" s="59" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A6" s="2"/>
+      <c r="B6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="62"/>
+      <c r="E6" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="63"/>
+    </row>
+    <row r="7" spans="1:7" s="59" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="65"/>
+    </row>
+    <row r="8" spans="1:7" s="59" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A8" s="2"/>
+      <c r="B8" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="65"/>
+    </row>
+    <row r="9" spans="1:7" s="59" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A9" s="2"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="65"/>
+    </row>
+    <row r="10" spans="1:7" s="59" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
+      <c r="A10" s="2"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="69"/>
+    </row>
+    <row r="11" spans="1:7" s="59" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A11" s="54"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+    </row>
+    <row r="12" spans="1:7" s="59" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+    </row>
+    <row r="13" spans="1:7" s="59" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="59" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A14" s="19">
+        <v>1</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="59" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A15" s="23">
+        <v>2</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="25"/>
+      <c r="G15" s="26"/>
+    </row>
+    <row r="16" spans="1:7" s="59" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A16" s="23">
+        <v>3</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="24"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="26"/>
+    </row>
+    <row r="17" spans="1:7" s="59" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A17" s="23">
+        <v>4</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="24"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="26"/>
+    </row>
+    <row r="18" spans="1:7" s="59" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A18" s="23">
+        <v>5</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="24"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="26"/>
+    </row>
+    <row r="19" spans="1:7" s="59" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A19" s="23">
+        <v>6</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="24"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="59" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A20" s="23">
+        <v>7</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="59" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A21" s="23">
+        <v>8</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="59" customFormat="1" ht="14">
+      <c r="A22" s="23">
+        <v>9</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="59" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
+      <c r="A23" s="27">
+        <v>10</v>
+      </c>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="30"/>
+    </row>
+    <row r="24" spans="1:7" s="59" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A24" s="2"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" spans="1:7" s="59" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
+      <c r="A25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" spans="1:7" s="59" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
+      <c r="A26" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="104" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="105"/>
+      <c r="E26" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="59" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A27" s="48">
+        <v>1</v>
+      </c>
+      <c r="B27" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="53"/>
+      <c r="E27" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" s="50"/>
+    </row>
+    <row r="28" spans="1:7" s="59" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
+      <c r="A28" s="51">
+        <v>2</v>
+      </c>
+      <c r="B28" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="71" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="72"/>
+      <c r="E28" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28" s="58"/>
+    </row>
+    <row r="29" spans="1:7" s="59" customFormat="1" ht="11" customHeight="1">
+      <c r="A29" s="74"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
+    </row>
+    <row r="30" spans="1:7" ht="15" customHeight="1">
+      <c r="A30" s="75"/>
+      <c r="B30" s="75"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="75"/>
+    </row>
+    <row r="31" spans="1:7" ht="15" customHeight="1">
+      <c r="A31" s="75"/>
+      <c r="B31" s="75"/>
+      <c r="C31" s="75"/>
+      <c r="D31" s="75"/>
+      <c r="E31" s="75"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="75"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+  </mergeCells>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="77" orientation="landscape"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"MS PGothic,Regular"&amp;11&amp;K000000000000テーブル定義書&amp;R&amp;"MS PGothic,Regular"&amp;11&amp;K0000000000002019/05/13</oddHeader>
+    <oddFooter>&amp;C&amp;"MS PGothic,Regular"&amp;11&amp;K000000000000&amp;P/</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z971"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -29661,13 +30968,13 @@
       <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="16"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="43"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -29690,16 +30997,16 @@
     </row>
     <row r="3" spans="1:26" ht="11.25" customHeight="1">
       <c r="A3" s="2"/>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20" t="s">
+      <c r="C3" s="31"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="21"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="40"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -29722,16 +31029,16 @@
     </row>
     <row r="4" spans="1:26" ht="11.25" customHeight="1">
       <c r="A4" s="2"/>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20" t="s">
+      <c r="C4" s="31"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="21"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="40"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -29754,18 +31061,18 @@
     </row>
     <row r="5" spans="1:26" ht="11.25" customHeight="1">
       <c r="A5" s="2"/>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20" t="s">
+      <c r="D5" s="32"/>
+      <c r="E5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="21"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="40"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -29788,14 +31095,14 @@
     </row>
     <row r="6" spans="1:26" ht="11.25" customHeight="1">
       <c r="A6" s="2"/>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="21"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="40"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -29818,14 +31125,14 @@
     </row>
     <row r="7" spans="1:26" ht="11.25" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="25"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="35"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -29848,14 +31155,14 @@
     </row>
     <row r="8" spans="1:26" ht="11.25" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="25"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="35"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -29878,12 +31185,12 @@
     </row>
     <row r="9" spans="1:26" ht="11.25" customHeight="1">
       <c r="A9" s="2"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="25"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="35"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -29906,12 +31213,12 @@
     </row>
     <row r="10" spans="1:26" ht="11.25" customHeight="1">
       <c r="A10" s="2"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="30"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="39"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -29991,25 +31298,25 @@
       <c r="Z12" s="2"/>
     </row>
     <row r="13" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="82" t="s">
         <v>6</v>
       </c>
       <c r="H13" s="2"/>
@@ -30033,19 +31340,19 @@
       <c r="Z13" s="2"/>
     </row>
     <row r="14" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A14" s="32">
+      <c r="A14" s="76">
         <v>1</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="34" t="s">
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="35" t="s">
+      <c r="G14" s="79" t="s">
         <v>12</v>
       </c>
       <c r="H14" s="2"/>
@@ -30069,19 +31376,19 @@
       <c r="Z14" s="2"/>
     </row>
     <row r="15" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A15" s="36">
+      <c r="A15" s="76">
         <v>2</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="38" t="s">
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="39" t="s">
+      <c r="G15" s="79" t="s">
         <v>12</v>
       </c>
       <c r="H15" s="2"/>
@@ -30104,20 +31411,20 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A16" s="40">
+    <row r="16" spans="1:26" s="17" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A16" s="76">
         <v>3</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="42" t="s">
+      <c r="C16" s="77"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="43" t="s">
+      <c r="G16" s="79" t="s">
         <v>12</v>
       </c>
       <c r="H16" s="2"/>
@@ -30140,14 +31447,22 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A17" s="2"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
+    <row r="17" spans="1:26" s="17" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A17" s="76">
+        <v>4</v>
+      </c>
+      <c r="B17" s="77" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="79" t="s">
+        <v>12</v>
+      </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -30168,16 +31483,22 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A18" s="1" t="s">
-        <v>20</v>
+    <row r="18" spans="1:26" s="17" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A18" s="76">
+        <v>5</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
+      <c r="B18" s="77" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="79" t="s">
+        <v>12</v>
+      </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -30198,25 +31519,21 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A19" s="4" t="s">
-        <v>2</v>
+    <row r="19" spans="1:26" s="17" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A19" s="76">
+        <v>6</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>21</v>
+      <c r="B19" s="77" t="s">
+        <v>12</v>
       </c>
-      <c r="C19" s="44" t="s">
-        <v>22</v>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="78" t="s">
+        <v>12</v>
       </c>
-      <c r="D19" s="45"/>
-      <c r="E19" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="31" t="s">
-        <v>6</v>
+      <c r="G19" s="79" t="s">
+        <v>12</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -30238,18 +31555,22 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A20" s="7">
-        <v>1</v>
+    <row r="20" spans="1:26" s="17" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A20" s="76">
+        <v>7</v>
       </c>
-      <c r="B20" s="46" t="s">
-        <v>25</v>
+      <c r="B20" s="77" t="s">
+        <v>12</v>
       </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="49"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="79" t="s">
+        <v>12</v>
+      </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -30270,14 +31591,22 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A21" s="2"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
+    <row r="21" spans="1:26" s="17" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A21" s="76">
+        <v>8</v>
+      </c>
+      <c r="B21" s="77" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="79" t="s">
+        <v>12</v>
+      </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -30298,16 +31627,22 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>26</v>
+    <row r="22" spans="1:26" s="17" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A22" s="76">
+        <v>9</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
+      <c r="B22" s="77" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="77"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="79" t="s">
+        <v>12</v>
+      </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -30328,22 +31663,22 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A23" s="4" t="s">
-        <v>2</v>
+    <row r="23" spans="1:26" ht="11.25" customHeight="1" thickBot="1">
+      <c r="A23" s="83">
+        <v>10</v>
       </c>
-      <c r="B23" s="15" t="s">
-        <v>27</v>
+      <c r="B23" s="84" t="s">
+        <v>12</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>28</v>
+      <c r="C23" s="84"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="85" t="s">
+        <v>12</v>
       </c>
-      <c r="D23" s="44" t="s">
-        <v>29</v>
+      <c r="G23" s="86" t="s">
+        <v>12</v>
       </c>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="51"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -30365,21 +31700,13 @@
       <c r="Z23" s="2"/>
     </row>
     <row r="24" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A24" s="7">
-        <v>1</v>
-      </c>
-      <c r="B24" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="53"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -30400,8 +31727,10 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A25" s="2"/>
+    <row r="25" spans="1:26" ht="11.25" customHeight="1" thickBot="1">
+      <c r="A25" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -30429,15 +31758,25 @@
       <c r="Z25" s="2"/>
     </row>
     <row r="26" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A26" s="1" t="s">
-        <v>32</v>
+      <c r="A26" s="87" t="s">
+        <v>2</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
+      <c r="B26" s="88" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="102" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="103"/>
+      <c r="E26" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="88" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="89" t="s">
+        <v>6</v>
+      </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -30459,23 +31798,17 @@
       <c r="Z26" s="2"/>
     </row>
     <row r="27" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A27" s="54" t="s">
-        <v>2</v>
+      <c r="A27" s="90">
+        <v>1</v>
       </c>
-      <c r="B27" s="55" t="s">
-        <v>33</v>
+      <c r="B27" s="91" t="s">
+        <v>25</v>
       </c>
-      <c r="C27" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="57"/>
-      <c r="E27" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="F27" s="59"/>
-      <c r="G27" s="60" t="s">
-        <v>35</v>
-      </c>
+      <c r="C27" s="92"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="91"/>
+      <c r="G27" s="94"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -30497,13 +31830,21 @@
       <c r="Z27" s="2"/>
     </row>
     <row r="28" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A28" s="2"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
+      <c r="A28" s="90">
+        <v>2</v>
+      </c>
+      <c r="B28" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="95"/>
+      <c r="D28" s="95"/>
+      <c r="E28" s="91"/>
+      <c r="F28" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="97" t="s">
+        <v>12</v>
+      </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -30524,16 +31865,22 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A29" s="1" t="s">
-        <v>36</v>
+    <row r="29" spans="1:26" ht="11.25" customHeight="1" thickBot="1">
+      <c r="A29" s="51">
+        <v>3</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
+      <c r="B29" s="98" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="99"/>
+      <c r="D29" s="99"/>
+      <c r="E29" s="98"/>
+      <c r="F29" s="100" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="101" t="s">
+        <v>12</v>
+      </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -30555,23 +31902,13 @@
       <c r="Z29" s="2"/>
     </row>
     <row r="30" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A30" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="57"/>
-      <c r="E30" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="F30" s="59"/>
-      <c r="G30" s="60" t="s">
-        <v>38</v>
-      </c>
+      <c r="A30" s="2"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -30621,9 +31958,7 @@
       <c r="Z31" s="2"/>
     </row>
     <row r="32" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A32" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="A32" s="2"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
@@ -30651,23 +31986,13 @@
       <c r="Z32" s="2"/>
     </row>
     <row r="33" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A33" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33" s="57"/>
-      <c r="E33" s="58" t="s">
-        <v>42</v>
-      </c>
-      <c r="F33" s="59"/>
-      <c r="G33" s="60" t="s">
-        <v>43</v>
-      </c>
+      <c r="A33" s="2"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -30717,9 +32042,7 @@
       <c r="Z34" s="2"/>
     </row>
     <row r="35" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A35" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="A35" s="2"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
@@ -30747,19 +32070,13 @@
       <c r="Z35" s="2"/>
     </row>
     <row r="36" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A36" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36" s="45"/>
-      <c r="D36" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="51"/>
+      <c r="A36" s="2"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -30781,17 +32098,13 @@
       <c r="Z36" s="2"/>
     </row>
     <row r="37" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A37" s="61">
-        <v>1</v>
-      </c>
-      <c r="B37" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" s="63"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="64"/>
-      <c r="F37" s="64"/>
-      <c r="G37" s="65"/>
+      <c r="A37" s="2"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -30813,17 +32126,13 @@
       <c r="Z37" s="2"/>
     </row>
     <row r="38" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A38" s="66">
-        <v>2</v>
-      </c>
-      <c r="B38" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="C38" s="68"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="69"/>
-      <c r="F38" s="69"/>
-      <c r="G38" s="70"/>
+      <c r="A38" s="2"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
@@ -30845,17 +32154,13 @@
       <c r="Z38" s="2"/>
     </row>
     <row r="39" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A39" s="66">
-        <v>3</v>
-      </c>
-      <c r="B39" s="67" t="s">
-        <v>49</v>
-      </c>
-      <c r="C39" s="68"/>
-      <c r="D39" s="67"/>
-      <c r="E39" s="69"/>
-      <c r="F39" s="69"/>
-      <c r="G39" s="70"/>
+      <c r="A39" s="2"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
@@ -30877,17 +32182,13 @@
       <c r="Z39" s="2"/>
     </row>
     <row r="40" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A40" s="66">
-        <v>4</v>
-      </c>
-      <c r="B40" s="67" t="s">
-        <v>50</v>
-      </c>
-      <c r="C40" s="68"/>
-      <c r="D40" s="67"/>
-      <c r="E40" s="69"/>
-      <c r="F40" s="69"/>
-      <c r="G40" s="70"/>
+      <c r="A40" s="2"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
@@ -30909,17 +32210,13 @@
       <c r="Z40" s="2"/>
     </row>
     <row r="41" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A41" s="66">
-        <v>5</v>
-      </c>
-      <c r="B41" s="67" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" s="68"/>
-      <c r="D41" s="67"/>
-      <c r="E41" s="69"/>
-      <c r="F41" s="69"/>
-      <c r="G41" s="70"/>
+      <c r="A41" s="2"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
@@ -30941,17 +32238,13 @@
       <c r="Z41" s="2"/>
     </row>
     <row r="42" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A42" s="66">
-        <v>6</v>
-      </c>
-      <c r="B42" s="67" t="s">
-        <v>52</v>
-      </c>
-      <c r="C42" s="68"/>
-      <c r="D42" s="67"/>
-      <c r="E42" s="69"/>
-      <c r="F42" s="69"/>
-      <c r="G42" s="70"/>
+      <c r="A42" s="2"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
@@ -30973,17 +32266,13 @@
       <c r="Z42" s="2"/>
     </row>
     <row r="43" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A43" s="66">
-        <v>7</v>
-      </c>
-      <c r="B43" s="67" t="s">
-        <v>53</v>
-      </c>
-      <c r="C43" s="68"/>
-      <c r="D43" s="67"/>
-      <c r="E43" s="69"/>
-      <c r="F43" s="69"/>
-      <c r="G43" s="70"/>
+      <c r="A43" s="2"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
@@ -31005,17 +32294,13 @@
       <c r="Z43" s="2"/>
     </row>
     <row r="44" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A44" s="66">
-        <v>8</v>
-      </c>
-      <c r="B44" s="67" t="s">
-        <v>54</v>
-      </c>
-      <c r="C44" s="68"/>
-      <c r="D44" s="67"/>
-      <c r="E44" s="69"/>
-      <c r="F44" s="69"/>
-      <c r="G44" s="70"/>
+      <c r="A44" s="2"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
@@ -31037,17 +32322,13 @@
       <c r="Z44" s="2"/>
     </row>
     <row r="45" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A45" s="66">
-        <v>9</v>
-      </c>
-      <c r="B45" s="67" t="s">
-        <v>55</v>
-      </c>
-      <c r="C45" s="68"/>
-      <c r="D45" s="67"/>
-      <c r="E45" s="69"/>
-      <c r="F45" s="69"/>
-      <c r="G45" s="70"/>
+      <c r="A45" s="2"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
@@ -31069,17 +32350,13 @@
       <c r="Z45" s="2"/>
     </row>
     <row r="46" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A46" s="66">
-        <v>10</v>
-      </c>
-      <c r="B46" s="67" t="s">
-        <v>56</v>
-      </c>
-      <c r="C46" s="68"/>
-      <c r="D46" s="67"/>
-      <c r="E46" s="69"/>
-      <c r="F46" s="69"/>
-      <c r="G46" s="70"/>
+      <c r="A46" s="2"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
@@ -31101,17 +32378,13 @@
       <c r="Z46" s="2"/>
     </row>
     <row r="47" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A47" s="66">
-        <v>11</v>
-      </c>
-      <c r="B47" s="67" t="s">
-        <v>57</v>
-      </c>
-      <c r="C47" s="68"/>
-      <c r="D47" s="67"/>
-      <c r="E47" s="69"/>
-      <c r="F47" s="69"/>
-      <c r="G47" s="70"/>
+      <c r="A47" s="2"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
@@ -31133,17 +32406,13 @@
       <c r="Z47" s="2"/>
     </row>
     <row r="48" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A48" s="66">
-        <v>12</v>
-      </c>
-      <c r="B48" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="C48" s="68"/>
-      <c r="D48" s="67"/>
-      <c r="E48" s="69"/>
-      <c r="F48" s="69"/>
-      <c r="G48" s="70"/>
+      <c r="A48" s="2"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
@@ -31165,17 +32434,13 @@
       <c r="Z48" s="2"/>
     </row>
     <row r="49" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A49" s="66">
-        <v>13</v>
-      </c>
-      <c r="B49" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="C49" s="68"/>
-      <c r="D49" s="67"/>
-      <c r="E49" s="69"/>
-      <c r="F49" s="69"/>
-      <c r="G49" s="70"/>
+      <c r="A49" s="2"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
@@ -31197,17 +32462,13 @@
       <c r="Z49" s="2"/>
     </row>
     <row r="50" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A50" s="66">
-        <v>14</v>
-      </c>
-      <c r="B50" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="C50" s="68"/>
-      <c r="D50" s="67"/>
-      <c r="E50" s="69"/>
-      <c r="F50" s="69"/>
-      <c r="G50" s="70"/>
+      <c r="A50" s="2"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
@@ -31229,17 +32490,13 @@
       <c r="Z50" s="2"/>
     </row>
     <row r="51" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A51" s="66">
-        <v>15</v>
-      </c>
-      <c r="B51" s="67" t="s">
-        <v>61</v>
-      </c>
-      <c r="C51" s="68"/>
-      <c r="D51" s="67"/>
-      <c r="E51" s="69"/>
-      <c r="F51" s="69"/>
-      <c r="G51" s="70"/>
+      <c r="A51" s="2"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
@@ -31261,17 +32518,13 @@
       <c r="Z51" s="2"/>
     </row>
     <row r="52" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A52" s="66">
-        <v>16</v>
-      </c>
-      <c r="B52" s="67" t="s">
-        <v>62</v>
-      </c>
-      <c r="C52" s="68"/>
-      <c r="D52" s="67"/>
-      <c r="E52" s="69"/>
-      <c r="F52" s="69"/>
-      <c r="G52" s="70"/>
+      <c r="A52" s="2"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
@@ -31293,17 +32546,13 @@
       <c r="Z52" s="2"/>
     </row>
     <row r="53" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A53" s="66">
-        <v>17</v>
-      </c>
-      <c r="B53" s="67" t="s">
-        <v>63</v>
-      </c>
-      <c r="C53" s="68"/>
-      <c r="D53" s="67"/>
-      <c r="E53" s="69"/>
-      <c r="F53" s="69"/>
-      <c r="G53" s="70"/>
+      <c r="A53" s="2"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
@@ -31325,17 +32574,13 @@
       <c r="Z53" s="2"/>
     </row>
     <row r="54" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A54" s="66">
-        <v>18</v>
-      </c>
-      <c r="B54" s="67" t="s">
-        <v>64</v>
-      </c>
-      <c r="C54" s="68"/>
-      <c r="D54" s="67"/>
-      <c r="E54" s="69"/>
-      <c r="F54" s="69"/>
-      <c r="G54" s="70"/>
+      <c r="A54" s="2"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
@@ -31357,17 +32602,13 @@
       <c r="Z54" s="2"/>
     </row>
     <row r="55" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A55" s="66">
-        <v>19</v>
-      </c>
-      <c r="B55" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="C55" s="68"/>
-      <c r="D55" s="67"/>
-      <c r="E55" s="69"/>
-      <c r="F55" s="69"/>
-      <c r="G55" s="70"/>
+      <c r="A55" s="2"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
@@ -31389,17 +32630,13 @@
       <c r="Z55" s="2"/>
     </row>
     <row r="56" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A56" s="66">
-        <v>20</v>
-      </c>
-      <c r="B56" s="67" t="s">
-        <v>66</v>
-      </c>
-      <c r="C56" s="68"/>
-      <c r="D56" s="67"/>
-      <c r="E56" s="69"/>
-      <c r="F56" s="69"/>
-      <c r="G56" s="70"/>
+      <c r="A56" s="2"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
@@ -31421,17 +32658,13 @@
       <c r="Z56" s="2"/>
     </row>
     <row r="57" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A57" s="71">
-        <v>21</v>
-      </c>
-      <c r="B57" s="72" t="s">
-        <v>67</v>
-      </c>
-      <c r="C57" s="73"/>
-      <c r="D57" s="72"/>
-      <c r="E57" s="74"/>
-      <c r="F57" s="74"/>
-      <c r="G57" s="75"/>
+      <c r="A57" s="2"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
@@ -57044,851 +58277,11 @@
       <c r="Y971" s="2"/>
       <c r="Z971" s="2"/>
     </row>
-    <row r="972" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A972" s="2"/>
-      <c r="B972" s="11"/>
-      <c r="C972" s="11"/>
-      <c r="D972" s="11"/>
-      <c r="E972" s="11"/>
-      <c r="F972" s="11"/>
-      <c r="G972" s="11"/>
-      <c r="H972" s="2"/>
-      <c r="I972" s="2"/>
-      <c r="J972" s="2"/>
-      <c r="K972" s="2"/>
-      <c r="L972" s="2"/>
-      <c r="M972" s="2"/>
-      <c r="N972" s="2"/>
-      <c r="O972" s="2"/>
-      <c r="P972" s="2"/>
-      <c r="Q972" s="2"/>
-      <c r="R972" s="2"/>
-      <c r="S972" s="2"/>
-      <c r="T972" s="2"/>
-      <c r="U972" s="2"/>
-      <c r="V972" s="2"/>
-      <c r="W972" s="2"/>
-      <c r="X972" s="2"/>
-      <c r="Y972" s="2"/>
-      <c r="Z972" s="2"/>
-    </row>
-    <row r="973" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A973" s="2"/>
-      <c r="B973" s="11"/>
-      <c r="C973" s="11"/>
-      <c r="D973" s="11"/>
-      <c r="E973" s="11"/>
-      <c r="F973" s="11"/>
-      <c r="G973" s="11"/>
-      <c r="H973" s="2"/>
-      <c r="I973" s="2"/>
-      <c r="J973" s="2"/>
-      <c r="K973" s="2"/>
-      <c r="L973" s="2"/>
-      <c r="M973" s="2"/>
-      <c r="N973" s="2"/>
-      <c r="O973" s="2"/>
-      <c r="P973" s="2"/>
-      <c r="Q973" s="2"/>
-      <c r="R973" s="2"/>
-      <c r="S973" s="2"/>
-      <c r="T973" s="2"/>
-      <c r="U973" s="2"/>
-      <c r="V973" s="2"/>
-      <c r="W973" s="2"/>
-      <c r="X973" s="2"/>
-      <c r="Y973" s="2"/>
-      <c r="Z973" s="2"/>
-    </row>
-    <row r="974" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A974" s="2"/>
-      <c r="B974" s="11"/>
-      <c r="C974" s="11"/>
-      <c r="D974" s="11"/>
-      <c r="E974" s="11"/>
-      <c r="F974" s="11"/>
-      <c r="G974" s="11"/>
-      <c r="H974" s="2"/>
-      <c r="I974" s="2"/>
-      <c r="J974" s="2"/>
-      <c r="K974" s="2"/>
-      <c r="L974" s="2"/>
-      <c r="M974" s="2"/>
-      <c r="N974" s="2"/>
-      <c r="O974" s="2"/>
-      <c r="P974" s="2"/>
-      <c r="Q974" s="2"/>
-      <c r="R974" s="2"/>
-      <c r="S974" s="2"/>
-      <c r="T974" s="2"/>
-      <c r="U974" s="2"/>
-      <c r="V974" s="2"/>
-      <c r="W974" s="2"/>
-      <c r="X974" s="2"/>
-      <c r="Y974" s="2"/>
-      <c r="Z974" s="2"/>
-    </row>
-    <row r="975" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A975" s="2"/>
-      <c r="B975" s="11"/>
-      <c r="C975" s="11"/>
-      <c r="D975" s="11"/>
-      <c r="E975" s="11"/>
-      <c r="F975" s="11"/>
-      <c r="G975" s="11"/>
-      <c r="H975" s="2"/>
-      <c r="I975" s="2"/>
-      <c r="J975" s="2"/>
-      <c r="K975" s="2"/>
-      <c r="L975" s="2"/>
-      <c r="M975" s="2"/>
-      <c r="N975" s="2"/>
-      <c r="O975" s="2"/>
-      <c r="P975" s="2"/>
-      <c r="Q975" s="2"/>
-      <c r="R975" s="2"/>
-      <c r="S975" s="2"/>
-      <c r="T975" s="2"/>
-      <c r="U975" s="2"/>
-      <c r="V975" s="2"/>
-      <c r="W975" s="2"/>
-      <c r="X975" s="2"/>
-      <c r="Y975" s="2"/>
-      <c r="Z975" s="2"/>
-    </row>
-    <row r="976" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A976" s="2"/>
-      <c r="B976" s="11"/>
-      <c r="C976" s="11"/>
-      <c r="D976" s="11"/>
-      <c r="E976" s="11"/>
-      <c r="F976" s="11"/>
-      <c r="G976" s="11"/>
-      <c r="H976" s="2"/>
-      <c r="I976" s="2"/>
-      <c r="J976" s="2"/>
-      <c r="K976" s="2"/>
-      <c r="L976" s="2"/>
-      <c r="M976" s="2"/>
-      <c r="N976" s="2"/>
-      <c r="O976" s="2"/>
-      <c r="P976" s="2"/>
-      <c r="Q976" s="2"/>
-      <c r="R976" s="2"/>
-      <c r="S976" s="2"/>
-      <c r="T976" s="2"/>
-      <c r="U976" s="2"/>
-      <c r="V976" s="2"/>
-      <c r="W976" s="2"/>
-      <c r="X976" s="2"/>
-      <c r="Y976" s="2"/>
-      <c r="Z976" s="2"/>
-    </row>
-    <row r="977" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A977" s="2"/>
-      <c r="B977" s="11"/>
-      <c r="C977" s="11"/>
-      <c r="D977" s="11"/>
-      <c r="E977" s="11"/>
-      <c r="F977" s="11"/>
-      <c r="G977" s="11"/>
-      <c r="H977" s="2"/>
-      <c r="I977" s="2"/>
-      <c r="J977" s="2"/>
-      <c r="K977" s="2"/>
-      <c r="L977" s="2"/>
-      <c r="M977" s="2"/>
-      <c r="N977" s="2"/>
-      <c r="O977" s="2"/>
-      <c r="P977" s="2"/>
-      <c r="Q977" s="2"/>
-      <c r="R977" s="2"/>
-      <c r="S977" s="2"/>
-      <c r="T977" s="2"/>
-      <c r="U977" s="2"/>
-      <c r="V977" s="2"/>
-      <c r="W977" s="2"/>
-      <c r="X977" s="2"/>
-      <c r="Y977" s="2"/>
-      <c r="Z977" s="2"/>
-    </row>
-    <row r="978" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A978" s="2"/>
-      <c r="B978" s="11"/>
-      <c r="C978" s="11"/>
-      <c r="D978" s="11"/>
-      <c r="E978" s="11"/>
-      <c r="F978" s="11"/>
-      <c r="G978" s="11"/>
-      <c r="H978" s="2"/>
-      <c r="I978" s="2"/>
-      <c r="J978" s="2"/>
-      <c r="K978" s="2"/>
-      <c r="L978" s="2"/>
-      <c r="M978" s="2"/>
-      <c r="N978" s="2"/>
-      <c r="O978" s="2"/>
-      <c r="P978" s="2"/>
-      <c r="Q978" s="2"/>
-      <c r="R978" s="2"/>
-      <c r="S978" s="2"/>
-      <c r="T978" s="2"/>
-      <c r="U978" s="2"/>
-      <c r="V978" s="2"/>
-      <c r="W978" s="2"/>
-      <c r="X978" s="2"/>
-      <c r="Y978" s="2"/>
-      <c r="Z978" s="2"/>
-    </row>
-    <row r="979" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A979" s="2"/>
-      <c r="B979" s="11"/>
-      <c r="C979" s="11"/>
-      <c r="D979" s="11"/>
-      <c r="E979" s="11"/>
-      <c r="F979" s="11"/>
-      <c r="G979" s="11"/>
-      <c r="H979" s="2"/>
-      <c r="I979" s="2"/>
-      <c r="J979" s="2"/>
-      <c r="K979" s="2"/>
-      <c r="L979" s="2"/>
-      <c r="M979" s="2"/>
-      <c r="N979" s="2"/>
-      <c r="O979" s="2"/>
-      <c r="P979" s="2"/>
-      <c r="Q979" s="2"/>
-      <c r="R979" s="2"/>
-      <c r="S979" s="2"/>
-      <c r="T979" s="2"/>
-      <c r="U979" s="2"/>
-      <c r="V979" s="2"/>
-      <c r="W979" s="2"/>
-      <c r="X979" s="2"/>
-      <c r="Y979" s="2"/>
-      <c r="Z979" s="2"/>
-    </row>
-    <row r="980" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A980" s="2"/>
-      <c r="B980" s="11"/>
-      <c r="C980" s="11"/>
-      <c r="D980" s="11"/>
-      <c r="E980" s="11"/>
-      <c r="F980" s="11"/>
-      <c r="G980" s="11"/>
-      <c r="H980" s="2"/>
-      <c r="I980" s="2"/>
-      <c r="J980" s="2"/>
-      <c r="K980" s="2"/>
-      <c r="L980" s="2"/>
-      <c r="M980" s="2"/>
-      <c r="N980" s="2"/>
-      <c r="O980" s="2"/>
-      <c r="P980" s="2"/>
-      <c r="Q980" s="2"/>
-      <c r="R980" s="2"/>
-      <c r="S980" s="2"/>
-      <c r="T980" s="2"/>
-      <c r="U980" s="2"/>
-      <c r="V980" s="2"/>
-      <c r="W980" s="2"/>
-      <c r="X980" s="2"/>
-      <c r="Y980" s="2"/>
-      <c r="Z980" s="2"/>
-    </row>
-    <row r="981" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A981" s="2"/>
-      <c r="B981" s="11"/>
-      <c r="C981" s="11"/>
-      <c r="D981" s="11"/>
-      <c r="E981" s="11"/>
-      <c r="F981" s="11"/>
-      <c r="G981" s="11"/>
-      <c r="H981" s="2"/>
-      <c r="I981" s="2"/>
-      <c r="J981" s="2"/>
-      <c r="K981" s="2"/>
-      <c r="L981" s="2"/>
-      <c r="M981" s="2"/>
-      <c r="N981" s="2"/>
-      <c r="O981" s="2"/>
-      <c r="P981" s="2"/>
-      <c r="Q981" s="2"/>
-      <c r="R981" s="2"/>
-      <c r="S981" s="2"/>
-      <c r="T981" s="2"/>
-      <c r="U981" s="2"/>
-      <c r="V981" s="2"/>
-      <c r="W981" s="2"/>
-      <c r="X981" s="2"/>
-      <c r="Y981" s="2"/>
-      <c r="Z981" s="2"/>
-    </row>
-    <row r="982" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A982" s="2"/>
-      <c r="B982" s="11"/>
-      <c r="C982" s="11"/>
-      <c r="D982" s="11"/>
-      <c r="E982" s="11"/>
-      <c r="F982" s="11"/>
-      <c r="G982" s="11"/>
-      <c r="H982" s="2"/>
-      <c r="I982" s="2"/>
-      <c r="J982" s="2"/>
-      <c r="K982" s="2"/>
-      <c r="L982" s="2"/>
-      <c r="M982" s="2"/>
-      <c r="N982" s="2"/>
-      <c r="O982" s="2"/>
-      <c r="P982" s="2"/>
-      <c r="Q982" s="2"/>
-      <c r="R982" s="2"/>
-      <c r="S982" s="2"/>
-      <c r="T982" s="2"/>
-      <c r="U982" s="2"/>
-      <c r="V982" s="2"/>
-      <c r="W982" s="2"/>
-      <c r="X982" s="2"/>
-      <c r="Y982" s="2"/>
-      <c r="Z982" s="2"/>
-    </row>
-    <row r="983" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A983" s="2"/>
-      <c r="B983" s="11"/>
-      <c r="C983" s="11"/>
-      <c r="D983" s="11"/>
-      <c r="E983" s="11"/>
-      <c r="F983" s="11"/>
-      <c r="G983" s="11"/>
-      <c r="H983" s="2"/>
-      <c r="I983" s="2"/>
-      <c r="J983" s="2"/>
-      <c r="K983" s="2"/>
-      <c r="L983" s="2"/>
-      <c r="M983" s="2"/>
-      <c r="N983" s="2"/>
-      <c r="O983" s="2"/>
-      <c r="P983" s="2"/>
-      <c r="Q983" s="2"/>
-      <c r="R983" s="2"/>
-      <c r="S983" s="2"/>
-      <c r="T983" s="2"/>
-      <c r="U983" s="2"/>
-      <c r="V983" s="2"/>
-      <c r="W983" s="2"/>
-      <c r="X983" s="2"/>
-      <c r="Y983" s="2"/>
-      <c r="Z983" s="2"/>
-    </row>
-    <row r="984" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A984" s="2"/>
-      <c r="B984" s="11"/>
-      <c r="C984" s="11"/>
-      <c r="D984" s="11"/>
-      <c r="E984" s="11"/>
-      <c r="F984" s="11"/>
-      <c r="G984" s="11"/>
-      <c r="H984" s="2"/>
-      <c r="I984" s="2"/>
-      <c r="J984" s="2"/>
-      <c r="K984" s="2"/>
-      <c r="L984" s="2"/>
-      <c r="M984" s="2"/>
-      <c r="N984" s="2"/>
-      <c r="O984" s="2"/>
-      <c r="P984" s="2"/>
-      <c r="Q984" s="2"/>
-      <c r="R984" s="2"/>
-      <c r="S984" s="2"/>
-      <c r="T984" s="2"/>
-      <c r="U984" s="2"/>
-      <c r="V984" s="2"/>
-      <c r="W984" s="2"/>
-      <c r="X984" s="2"/>
-      <c r="Y984" s="2"/>
-      <c r="Z984" s="2"/>
-    </row>
-    <row r="985" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A985" s="2"/>
-      <c r="B985" s="11"/>
-      <c r="C985" s="11"/>
-      <c r="D985" s="11"/>
-      <c r="E985" s="11"/>
-      <c r="F985" s="11"/>
-      <c r="G985" s="11"/>
-      <c r="H985" s="2"/>
-      <c r="I985" s="2"/>
-      <c r="J985" s="2"/>
-      <c r="K985" s="2"/>
-      <c r="L985" s="2"/>
-      <c r="M985" s="2"/>
-      <c r="N985" s="2"/>
-      <c r="O985" s="2"/>
-      <c r="P985" s="2"/>
-      <c r="Q985" s="2"/>
-      <c r="R985" s="2"/>
-      <c r="S985" s="2"/>
-      <c r="T985" s="2"/>
-      <c r="U985" s="2"/>
-      <c r="V985" s="2"/>
-      <c r="W985" s="2"/>
-      <c r="X985" s="2"/>
-      <c r="Y985" s="2"/>
-      <c r="Z985" s="2"/>
-    </row>
-    <row r="986" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A986" s="2"/>
-      <c r="B986" s="11"/>
-      <c r="C986" s="11"/>
-      <c r="D986" s="11"/>
-      <c r="E986" s="11"/>
-      <c r="F986" s="11"/>
-      <c r="G986" s="11"/>
-      <c r="H986" s="2"/>
-      <c r="I986" s="2"/>
-      <c r="J986" s="2"/>
-      <c r="K986" s="2"/>
-      <c r="L986" s="2"/>
-      <c r="M986" s="2"/>
-      <c r="N986" s="2"/>
-      <c r="O986" s="2"/>
-      <c r="P986" s="2"/>
-      <c r="Q986" s="2"/>
-      <c r="R986" s="2"/>
-      <c r="S986" s="2"/>
-      <c r="T986" s="2"/>
-      <c r="U986" s="2"/>
-      <c r="V986" s="2"/>
-      <c r="W986" s="2"/>
-      <c r="X986" s="2"/>
-      <c r="Y986" s="2"/>
-      <c r="Z986" s="2"/>
-    </row>
-    <row r="987" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A987" s="2"/>
-      <c r="B987" s="11"/>
-      <c r="C987" s="11"/>
-      <c r="D987" s="11"/>
-      <c r="E987" s="11"/>
-      <c r="F987" s="11"/>
-      <c r="G987" s="11"/>
-      <c r="H987" s="2"/>
-      <c r="I987" s="2"/>
-      <c r="J987" s="2"/>
-      <c r="K987" s="2"/>
-      <c r="L987" s="2"/>
-      <c r="M987" s="2"/>
-      <c r="N987" s="2"/>
-      <c r="O987" s="2"/>
-      <c r="P987" s="2"/>
-      <c r="Q987" s="2"/>
-      <c r="R987" s="2"/>
-      <c r="S987" s="2"/>
-      <c r="T987" s="2"/>
-      <c r="U987" s="2"/>
-      <c r="V987" s="2"/>
-      <c r="W987" s="2"/>
-      <c r="X987" s="2"/>
-      <c r="Y987" s="2"/>
-      <c r="Z987" s="2"/>
-    </row>
-    <row r="988" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A988" s="2"/>
-      <c r="B988" s="11"/>
-      <c r="C988" s="11"/>
-      <c r="D988" s="11"/>
-      <c r="E988" s="11"/>
-      <c r="F988" s="11"/>
-      <c r="G988" s="11"/>
-      <c r="H988" s="2"/>
-      <c r="I988" s="2"/>
-      <c r="J988" s="2"/>
-      <c r="K988" s="2"/>
-      <c r="L988" s="2"/>
-      <c r="M988" s="2"/>
-      <c r="N988" s="2"/>
-      <c r="O988" s="2"/>
-      <c r="P988" s="2"/>
-      <c r="Q988" s="2"/>
-      <c r="R988" s="2"/>
-      <c r="S988" s="2"/>
-      <c r="T988" s="2"/>
-      <c r="U988" s="2"/>
-      <c r="V988" s="2"/>
-      <c r="W988" s="2"/>
-      <c r="X988" s="2"/>
-      <c r="Y988" s="2"/>
-      <c r="Z988" s="2"/>
-    </row>
-    <row r="989" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A989" s="2"/>
-      <c r="B989" s="11"/>
-      <c r="C989" s="11"/>
-      <c r="D989" s="11"/>
-      <c r="E989" s="11"/>
-      <c r="F989" s="11"/>
-      <c r="G989" s="11"/>
-      <c r="H989" s="2"/>
-      <c r="I989" s="2"/>
-      <c r="J989" s="2"/>
-      <c r="K989" s="2"/>
-      <c r="L989" s="2"/>
-      <c r="M989" s="2"/>
-      <c r="N989" s="2"/>
-      <c r="O989" s="2"/>
-      <c r="P989" s="2"/>
-      <c r="Q989" s="2"/>
-      <c r="R989" s="2"/>
-      <c r="S989" s="2"/>
-      <c r="T989" s="2"/>
-      <c r="U989" s="2"/>
-      <c r="V989" s="2"/>
-      <c r="W989" s="2"/>
-      <c r="X989" s="2"/>
-      <c r="Y989" s="2"/>
-      <c r="Z989" s="2"/>
-    </row>
-    <row r="990" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A990" s="2"/>
-      <c r="B990" s="11"/>
-      <c r="C990" s="11"/>
-      <c r="D990" s="11"/>
-      <c r="E990" s="11"/>
-      <c r="F990" s="11"/>
-      <c r="G990" s="11"/>
-      <c r="H990" s="2"/>
-      <c r="I990" s="2"/>
-      <c r="J990" s="2"/>
-      <c r="K990" s="2"/>
-      <c r="L990" s="2"/>
-      <c r="M990" s="2"/>
-      <c r="N990" s="2"/>
-      <c r="O990" s="2"/>
-      <c r="P990" s="2"/>
-      <c r="Q990" s="2"/>
-      <c r="R990" s="2"/>
-      <c r="S990" s="2"/>
-      <c r="T990" s="2"/>
-      <c r="U990" s="2"/>
-      <c r="V990" s="2"/>
-      <c r="W990" s="2"/>
-      <c r="X990" s="2"/>
-      <c r="Y990" s="2"/>
-      <c r="Z990" s="2"/>
-    </row>
-    <row r="991" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A991" s="2"/>
-      <c r="B991" s="11"/>
-      <c r="C991" s="11"/>
-      <c r="D991" s="11"/>
-      <c r="E991" s="11"/>
-      <c r="F991" s="11"/>
-      <c r="G991" s="11"/>
-      <c r="H991" s="2"/>
-      <c r="I991" s="2"/>
-      <c r="J991" s="2"/>
-      <c r="K991" s="2"/>
-      <c r="L991" s="2"/>
-      <c r="M991" s="2"/>
-      <c r="N991" s="2"/>
-      <c r="O991" s="2"/>
-      <c r="P991" s="2"/>
-      <c r="Q991" s="2"/>
-      <c r="R991" s="2"/>
-      <c r="S991" s="2"/>
-      <c r="T991" s="2"/>
-      <c r="U991" s="2"/>
-      <c r="V991" s="2"/>
-      <c r="W991" s="2"/>
-      <c r="X991" s="2"/>
-      <c r="Y991" s="2"/>
-      <c r="Z991" s="2"/>
-    </row>
-    <row r="992" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A992" s="2"/>
-      <c r="B992" s="11"/>
-      <c r="C992" s="11"/>
-      <c r="D992" s="11"/>
-      <c r="E992" s="11"/>
-      <c r="F992" s="11"/>
-      <c r="G992" s="11"/>
-      <c r="H992" s="2"/>
-      <c r="I992" s="2"/>
-      <c r="J992" s="2"/>
-      <c r="K992" s="2"/>
-      <c r="L992" s="2"/>
-      <c r="M992" s="2"/>
-      <c r="N992" s="2"/>
-      <c r="O992" s="2"/>
-      <c r="P992" s="2"/>
-      <c r="Q992" s="2"/>
-      <c r="R992" s="2"/>
-      <c r="S992" s="2"/>
-      <c r="T992" s="2"/>
-      <c r="U992" s="2"/>
-      <c r="V992" s="2"/>
-      <c r="W992" s="2"/>
-      <c r="X992" s="2"/>
-      <c r="Y992" s="2"/>
-      <c r="Z992" s="2"/>
-    </row>
-    <row r="993" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A993" s="2"/>
-      <c r="B993" s="11"/>
-      <c r="C993" s="11"/>
-      <c r="D993" s="11"/>
-      <c r="E993" s="11"/>
-      <c r="F993" s="11"/>
-      <c r="G993" s="11"/>
-      <c r="H993" s="2"/>
-      <c r="I993" s="2"/>
-      <c r="J993" s="2"/>
-      <c r="K993" s="2"/>
-      <c r="L993" s="2"/>
-      <c r="M993" s="2"/>
-      <c r="N993" s="2"/>
-      <c r="O993" s="2"/>
-      <c r="P993" s="2"/>
-      <c r="Q993" s="2"/>
-      <c r="R993" s="2"/>
-      <c r="S993" s="2"/>
-      <c r="T993" s="2"/>
-      <c r="U993" s="2"/>
-      <c r="V993" s="2"/>
-      <c r="W993" s="2"/>
-      <c r="X993" s="2"/>
-      <c r="Y993" s="2"/>
-      <c r="Z993" s="2"/>
-    </row>
-    <row r="994" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A994" s="2"/>
-      <c r="B994" s="11"/>
-      <c r="C994" s="11"/>
-      <c r="D994" s="11"/>
-      <c r="E994" s="11"/>
-      <c r="F994" s="11"/>
-      <c r="G994" s="11"/>
-      <c r="H994" s="2"/>
-      <c r="I994" s="2"/>
-      <c r="J994" s="2"/>
-      <c r="K994" s="2"/>
-      <c r="L994" s="2"/>
-      <c r="M994" s="2"/>
-      <c r="N994" s="2"/>
-      <c r="O994" s="2"/>
-      <c r="P994" s="2"/>
-      <c r="Q994" s="2"/>
-      <c r="R994" s="2"/>
-      <c r="S994" s="2"/>
-      <c r="T994" s="2"/>
-      <c r="U994" s="2"/>
-      <c r="V994" s="2"/>
-      <c r="W994" s="2"/>
-      <c r="X994" s="2"/>
-      <c r="Y994" s="2"/>
-      <c r="Z994" s="2"/>
-    </row>
-    <row r="995" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A995" s="2"/>
-      <c r="B995" s="11"/>
-      <c r="C995" s="11"/>
-      <c r="D995" s="11"/>
-      <c r="E995" s="11"/>
-      <c r="F995" s="11"/>
-      <c r="G995" s="11"/>
-      <c r="H995" s="2"/>
-      <c r="I995" s="2"/>
-      <c r="J995" s="2"/>
-      <c r="K995" s="2"/>
-      <c r="L995" s="2"/>
-      <c r="M995" s="2"/>
-      <c r="N995" s="2"/>
-      <c r="O995" s="2"/>
-      <c r="P995" s="2"/>
-      <c r="Q995" s="2"/>
-      <c r="R995" s="2"/>
-      <c r="S995" s="2"/>
-      <c r="T995" s="2"/>
-      <c r="U995" s="2"/>
-      <c r="V995" s="2"/>
-      <c r="W995" s="2"/>
-      <c r="X995" s="2"/>
-      <c r="Y995" s="2"/>
-      <c r="Z995" s="2"/>
-    </row>
-    <row r="996" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A996" s="2"/>
-      <c r="B996" s="11"/>
-      <c r="C996" s="11"/>
-      <c r="D996" s="11"/>
-      <c r="E996" s="11"/>
-      <c r="F996" s="11"/>
-      <c r="G996" s="11"/>
-      <c r="H996" s="2"/>
-      <c r="I996" s="2"/>
-      <c r="J996" s="2"/>
-      <c r="K996" s="2"/>
-      <c r="L996" s="2"/>
-      <c r="M996" s="2"/>
-      <c r="N996" s="2"/>
-      <c r="O996" s="2"/>
-      <c r="P996" s="2"/>
-      <c r="Q996" s="2"/>
-      <c r="R996" s="2"/>
-      <c r="S996" s="2"/>
-      <c r="T996" s="2"/>
-      <c r="U996" s="2"/>
-      <c r="V996" s="2"/>
-      <c r="W996" s="2"/>
-      <c r="X996" s="2"/>
-      <c r="Y996" s="2"/>
-      <c r="Z996" s="2"/>
-    </row>
-    <row r="997" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A997" s="2"/>
-      <c r="B997" s="11"/>
-      <c r="C997" s="11"/>
-      <c r="D997" s="11"/>
-      <c r="E997" s="11"/>
-      <c r="F997" s="11"/>
-      <c r="G997" s="11"/>
-      <c r="H997" s="2"/>
-      <c r="I997" s="2"/>
-      <c r="J997" s="2"/>
-      <c r="K997" s="2"/>
-      <c r="L997" s="2"/>
-      <c r="M997" s="2"/>
-      <c r="N997" s="2"/>
-      <c r="O997" s="2"/>
-      <c r="P997" s="2"/>
-      <c r="Q997" s="2"/>
-      <c r="R997" s="2"/>
-      <c r="S997" s="2"/>
-      <c r="T997" s="2"/>
-      <c r="U997" s="2"/>
-      <c r="V997" s="2"/>
-      <c r="W997" s="2"/>
-      <c r="X997" s="2"/>
-      <c r="Y997" s="2"/>
-      <c r="Z997" s="2"/>
-    </row>
-    <row r="998" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A998" s="2"/>
-      <c r="B998" s="11"/>
-      <c r="C998" s="11"/>
-      <c r="D998" s="11"/>
-      <c r="E998" s="11"/>
-      <c r="F998" s="11"/>
-      <c r="G998" s="11"/>
-      <c r="H998" s="2"/>
-      <c r="I998" s="2"/>
-      <c r="J998" s="2"/>
-      <c r="K998" s="2"/>
-      <c r="L998" s="2"/>
-      <c r="M998" s="2"/>
-      <c r="N998" s="2"/>
-      <c r="O998" s="2"/>
-      <c r="P998" s="2"/>
-      <c r="Q998" s="2"/>
-      <c r="R998" s="2"/>
-      <c r="S998" s="2"/>
-      <c r="T998" s="2"/>
-      <c r="U998" s="2"/>
-      <c r="V998" s="2"/>
-      <c r="W998" s="2"/>
-      <c r="X998" s="2"/>
-      <c r="Y998" s="2"/>
-      <c r="Z998" s="2"/>
-    </row>
-    <row r="999" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A999" s="2"/>
-      <c r="B999" s="11"/>
-      <c r="C999" s="11"/>
-      <c r="D999" s="11"/>
-      <c r="E999" s="11"/>
-      <c r="F999" s="11"/>
-      <c r="G999" s="11"/>
-      <c r="H999" s="2"/>
-      <c r="I999" s="2"/>
-      <c r="J999" s="2"/>
-      <c r="K999" s="2"/>
-      <c r="L999" s="2"/>
-      <c r="M999" s="2"/>
-      <c r="N999" s="2"/>
-      <c r="O999" s="2"/>
-      <c r="P999" s="2"/>
-      <c r="Q999" s="2"/>
-      <c r="R999" s="2"/>
-      <c r="S999" s="2"/>
-      <c r="T999" s="2"/>
-      <c r="U999" s="2"/>
-      <c r="V999" s="2"/>
-      <c r="W999" s="2"/>
-      <c r="X999" s="2"/>
-      <c r="Y999" s="2"/>
-      <c r="Z999" s="2"/>
-    </row>
-    <row r="1000" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A1000" s="2"/>
-      <c r="B1000" s="11"/>
-      <c r="C1000" s="11"/>
-      <c r="D1000" s="11"/>
-      <c r="E1000" s="11"/>
-      <c r="F1000" s="11"/>
-      <c r="G1000" s="11"/>
-      <c r="H1000" s="2"/>
-      <c r="I1000" s="2"/>
-      <c r="J1000" s="2"/>
-      <c r="K1000" s="2"/>
-      <c r="L1000" s="2"/>
-      <c r="M1000" s="2"/>
-      <c r="N1000" s="2"/>
-      <c r="O1000" s="2"/>
-      <c r="P1000" s="2"/>
-      <c r="Q1000" s="2"/>
-      <c r="R1000" s="2"/>
-      <c r="S1000" s="2"/>
-      <c r="T1000" s="2"/>
-      <c r="U1000" s="2"/>
-      <c r="V1000" s="2"/>
-      <c r="W1000" s="2"/>
-      <c r="X1000" s="2"/>
-      <c r="Y1000" s="2"/>
-      <c r="Z1000" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="59">
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:G57"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="B8:G10"/>
+  <mergeCells count="16">
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C26:D26"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="F6:G6"/>
@@ -57897,26 +58290,11 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="B8:G10"/>
     <mergeCell ref="B7:G7"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D52:G52"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
